--- a/NFES_Review/weightVScons.xlsx
+++ b/NFES_Review/weightVScons.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\NFES_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{ABF0DF78-C7D8-4189-8D9F-3ED618FC3F46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53CAB1E-6EC1-4B8B-9DE9-C958513D92F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="1380" windowWidth="21495" windowHeight="10185" xr2:uid="{257EF4C4-23DC-41CA-B233-C9469FC7ABC0}"/>
+    <workbookView xWindow="19980" yWindow="1020" windowWidth="16335" windowHeight="11385" xr2:uid="{257EF4C4-23DC-41CA-B233-C9469FC7ABC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,12 +34,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>g/mol</t>
   </si>
   <si>
     <t>wt%</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>polymer</t>
+  </si>
+  <si>
+    <t>solvent</t>
+  </si>
+  <si>
+    <t>Bisht 2011</t>
+  </si>
+  <si>
+    <t>PEO</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>MEH-PPV</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Camillo 2013</t>
+  </si>
+  <si>
+    <t>Chang 2008</t>
+  </si>
+  <si>
+    <t>Duan 2017</t>
+  </si>
+  <si>
+    <t>PVDF</t>
+  </si>
+  <si>
+    <t>DMF</t>
+  </si>
+  <si>
+    <t>POSS-PCL-PCU</t>
+  </si>
+  <si>
+    <t>DMAC</t>
+  </si>
+  <si>
+    <t>Gupta 2007</t>
+  </si>
+  <si>
+    <t>Huang 2015</t>
+  </si>
+  <si>
+    <t>Jiang 2018</t>
+  </si>
+  <si>
+    <t>Kim 2018</t>
+  </si>
+  <si>
+    <t>Min 2013</t>
+  </si>
+  <si>
+    <t>PVK</t>
+  </si>
+  <si>
+    <t>Styrene</t>
+  </si>
+  <si>
+    <t>Sun 2006</t>
+  </si>
+  <si>
+    <t>Not determined</t>
+  </si>
+  <si>
+    <t>Wang 2015</t>
+  </si>
+  <si>
+    <t>Xu 2014</t>
+  </si>
+  <si>
+    <t>Zheng 2010</t>
+  </si>
+  <si>
+    <t>Zheng 2014</t>
+  </si>
+  <si>
+    <t>Bu 2012</t>
+  </si>
+  <si>
+    <t>Cisquella-Serra 2019</t>
+  </si>
+  <si>
+    <t>PEO-TBF</t>
+  </si>
+  <si>
+    <t>Nagle 2019</t>
+  </si>
+  <si>
+    <t>Shin 2018</t>
+  </si>
+  <si>
+    <t>Acetone : DMSO</t>
+  </si>
+  <si>
+    <t>Water : Ethanol</t>
   </si>
 </sst>
 </file>
@@ -105,62 +213,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>g/mol   vs   wt%</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -171,25 +224,25 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>wt%</c:v>
+                  <c:v>MEH-PPV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -202,198 +255,1606 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5489217296522495E-17"/>
+                  <c:y val="-7.8939230777598138E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3C960E15-BEA9-461C-A782-AD909AFAD04D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.17425240594925634"/>
-                  <c:y val="-7.89588801399825E-4"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
                   <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>440000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>534000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1100000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2000000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>300000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>400000</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.96</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>380000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$A$2</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>Camillo 2013</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4ED2-4758-A935-9DFA5A5429BF}"/>
+              <c16:uniqueId val="{00000000-D47E-4DE4-9132-58CD9B4B3230}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PEO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1174337750736902E-2"/>
+                  <c:y val="0.12151940926106354"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7C73CB23-6A7A-4C32-B18B-5F348C831A19}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.9016547856713397E-3"/>
+                  <c:y val="-3.8865334023274641E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0BEA67C7-BF56-46F4-A98A-E8DEF27DD100}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0587414100162944E-2"/>
+                  <c:y val="2.7135360579799327E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{99F7CE9D-EC6A-4A83-B9F8-7A920FB0E931}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5293707050081484E-2"/>
+                  <c:y val="4.1936466350598778E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EEB7AF47-5C81-4394-8FA5-A9BF22182AB3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8074381059187142E-2"/>
+                  <c:y val="-5.920442308319853E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A4D1C353-1F60-4A90-BE95-C90CFAD79788}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9464718063740054E-2"/>
+                  <c:y val="4.6870168274198834E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{90468128-1CFE-418A-B906-F972CD2500BD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9197077095610081E-2"/>
+                  <c:y val="3.2069062503399026E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3204C1A4-D596-43A0-A3E6-410817292947}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.097843459304499E-17"/>
+                  <c:y val="3.4535913465199145E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7E828FAA-DC2A-46FB-9C6D-5F3F6CFA9E35}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1C0EE8E3-4DAD-468B-823C-9D3554A5B271}" type="CELLRANGE">
+                      <a:rPr lang="en-GB"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.3970614187392932E-2"/>
+                  <c:y val="5.8617234858196858E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D6DA7956-6250-481F-82D2-DE9198FFBECD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.7858872254960215E-2"/>
+                  <c:y val="-5.920442308319853E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9BD39F8B-D056-43BF-9A74-FF392E707D9B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1122696036422684E-2"/>
+                  <c:y val="2.4668509617999388E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FA6D004E-ABC8-4CF3-8486-FAA94476D3B6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5933253314147413E-2"/>
+                  <c:y val="-0.11347514424279727"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{17FEA3EB-422B-4D43-8EF9-B2DA2E64127E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.7323590318700269E-3"/>
+                  <c:y val="-3.2069062503399297E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C15EC7B4-BA8A-46FC-BA1E-40CCCAADA7EB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7806740091057222E-3"/>
+                  <c:y val="3.4535913465199145E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FF268658-6AF4-43AE-A53B-76BC6A560933}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.058741410016284E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{993CD24D-8B2B-4807-96CA-B7178343257D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>200000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$A$3:$A$18</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="16"/>
+                  <c:pt idx="0">
+                    <c:v>Bisht 2011</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Bisht 2011</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Bisht 2011</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Camillo 2013</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Chang 2008</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Huang 2015</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Jiang 2018</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Sun 2006</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Wang 2015</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Xu 2014</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Zheng 2010</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Zheng 2010</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Zheng 2014</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Bu 2012</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Nagle 2019</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Shin 2018</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D47E-4DE4-9132-58CD9B4B3230}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PEO-TBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="accent1"/>
+              </a:glow>
+              <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000"/>
+              </a:outerShdw>
+              <a:softEdge rad="0"/>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="accent1"/>
+                </a:glow>
+                <a:outerShdw blurRad="50800" dist="50800" dir="5400000" sx="1000" sy="1000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000"/>
+                </a:outerShdw>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4691426196751737E-2"/>
+                  <c:y val="-9.1292326889219358E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F8A62756-AC5B-4BA7-9709-4ABDE8B8980C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$A$19</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>Cisquella-Serra 2019</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D47E-4DE4-9132-58CD9B4B3230}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PVDF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.951685022764509E-3"/>
+                  <c:y val="-4.9337019235998779E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B4E9709C-D682-4B9A-8F51-D52FD9579AA7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6416403086504361E-2"/>
+                  <c:y val="-8.6339783662997854E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{64CECCC0-DFD1-47AA-8698-3CF75417BA26}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$21:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$21:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>440000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>534000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$A$21:$A$22</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="2"/>
+                  <c:pt idx="0">
+                    <c:v>Duan 2017</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Kim 2018</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D47E-4DE4-9132-58CD9B4B3230}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PVK</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2307F092-1B1B-4136-BC91-02114D8E678C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-D47E-4DE4-9132-58CD9B4B3230}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="25000"/>
+                    <a:lumOff val="75000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Sheet1!$A$23</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>Min 2013</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D47E-4DE4-9132-58CD9B4B3230}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -405,11 +1866,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411686767"/>
-        <c:axId val="538114927"/>
+        <c:axId val="868851888"/>
+        <c:axId val="874926240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411686767"/>
+        <c:axId val="868851888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -429,6 +1890,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800"/>
+                  <a:t>Solution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+                  <a:t> concentration [wt%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -451,14 +1972,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -466,12 +1987,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538114927"/>
+        <c:crossAx val="874926240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="538114927"/>
+        <c:axId val="874926240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -491,6 +2012,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800"/>
+                  <a:t>Molecular</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+                  <a:t> weight [g/mol]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -513,14 +2094,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -528,7 +2109,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411686767"/>
+        <c:crossAx val="868851888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -540,6 +2121,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1144,23 +2756,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>4764</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE939F1-94A2-431A-B5B0-7D0677D1B7E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17C13D9E-FE3F-471A-8925-87670BDA5FC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,183 +3090,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33050BF9-30EE-4B25-89E8-D0C2AB98776D}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>380000</v>
+      </c>
+      <c r="E2">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
         <v>4000000</v>
       </c>
-      <c r="B2">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
         <v>4000000</v>
       </c>
-      <c r="B3">
+      <c r="E4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>4000000</v>
       </c>
-      <c r="B4">
+      <c r="E5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
         <v>300000</v>
       </c>
-      <c r="B5">
+      <c r="E6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
+      <c r="D7">
+        <v>300000</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>300000</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>300000</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>300000</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>2000000</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>4000000</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>300000</v>
+      </c>
+      <c r="E13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>300000</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>300000</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>300000</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <v>200000</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>400000</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>4000000</v>
+      </c>
+      <c r="E19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
         <v>440000</v>
       </c>
-      <c r="B6">
+      <c r="E21">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2000</v>
-      </c>
-      <c r="B7">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>534000</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>300000</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>300000</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>534000</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
         <v>1100000</v>
       </c>
-      <c r="B11">
+      <c r="E23">
         <v>3.96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>300000</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2000000</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>4000000</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>300000</v>
-      </c>
-      <c r="B15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>300000</v>
-      </c>
-      <c r="B16">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>300000</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>300000</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>4000000</v>
-      </c>
-      <c r="B19">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>200000</v>
-      </c>
-      <c r="B20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>400000</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{8D7FEF4D-D6DD-403B-9290-63BFA8FE83AD}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
